--- a/MỚI.xlsx
+++ b/MỚI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huylongpham/Documents/Freelance/flour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C2C350-37B2-6B47-A477-0A8E56016F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F048AF-6EDA-064D-95F3-3319113F0D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="23240" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>WG</t>
   </si>
   <si>
-    <t>Muối</t>
-  </si>
-  <si>
     <t>Đường</t>
   </si>
   <si>
     <t>Nước</t>
   </si>
   <si>
-    <t>Tổng</t>
-  </si>
-  <si>
     <t>T.sa</t>
   </si>
   <si>
@@ -224,13 +218,31 @@
     <t>( giây)</t>
   </si>
   <si>
-    <t>Đ. Rơi</t>
-  </si>
-  <si>
     <t>CT. Phối trộn</t>
   </si>
   <si>
-    <t>npm i --save-dev @types/node</t>
+    <t>Paddy type</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -240,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -251,12 +263,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -380,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,16 +418,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,7 +439,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,11 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BD47"/>
+  <dimension ref="A2:BD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -731,27 +736,32 @@
     <col min="56" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="3" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>33</v>
+      <c r="A3" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -760,187 +770,187 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="25"/>
-      <c r="O3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
+      <c r="O3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
       <c r="BC3" s="7"/>
       <c r="BD3" s="8"/>
     </row>
-    <row r="4" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
       <c r="B4" s="1"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="V4" s="19"/>
+      <c r="W4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22" t="s">
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22" t="s">
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22" t="s">
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22" t="s">
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22" t="s">
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22" t="s">
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB4" s="22"/>
+      <c r="BB4" s="19"/>
       <c r="BC4" s="7"/>
       <c r="BD4" s="10"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="22"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -971,10 +981,10 @@
         <v>2</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y5" s="7">
         <v>1</v>
@@ -983,22 +993,22 @@
         <v>2</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -1058,10 +1068,10 @@
       <c r="BD5" s="10"/>
     </row>
     <row r="6" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="20">
         <f>E6/45*100</f>
         <v>27.777777777777779</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>12.5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -1143,8 +1153,8 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12">
         <f>B6*30/100</f>
         <v>8.3333333333333339</v>
@@ -1158,7 +1168,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>13</v>
@@ -1223,8 +1233,8 @@
       <c r="BC7" s="15"/>
     </row>
     <row r="8" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="12">
         <f>B6*5/100</f>
         <v>1.3888888888888888</v>
@@ -1238,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>15</v>
@@ -1299,18 +1309,18 @@
       <c r="BC8" s="15"/>
     </row>
     <row r="9" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="21"/>
+      <c r="A9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E38" si="0">SUM(O9:BC9)/100*O40</f>
+        <f t="shared" ref="E9" si="0">SUM(O9:BC9)/100*O40</f>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5">
@@ -1367,16 +1377,16 @@
       <c r="BC9" s="16"/>
     </row>
     <row r="10" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O10:BC10)/100*P41</f>
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4">
@@ -1431,16 +1441,16 @@
       <c r="BC10" s="15"/>
     </row>
     <row r="11" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O11:BC11)/100*P42</f>
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
@@ -1493,18 +1503,18 @@
       <c r="BC11" s="17"/>
     </row>
     <row r="12" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(O12:BC12)/100*P43</f>
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4">
@@ -1561,16 +1571,16 @@
       <c r="BC12" s="15"/>
     </row>
     <row r="13" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O13:BC13)/100*P44</f>
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4">
@@ -1625,16 +1635,16 @@
       <c r="BC13" s="15"/>
     </row>
     <row r="14" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(O14:BC14)/100*P45</f>
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
@@ -1687,18 +1697,18 @@
       <c r="BC14" s="15"/>
     </row>
     <row r="15" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O15:BC15)/100*P46</f>
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5">
@@ -1753,16 +1763,16 @@
       <c r="BC15" s="16"/>
     </row>
     <row r="16" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O16:BC16)/100*P47</f>
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="4">
@@ -1819,16 +1829,16 @@
       <c r="BC16" s="15"/>
     </row>
     <row r="17" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E17" s="1" t="e">
+        <f>SUM(O17:BC17)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
@@ -1881,18 +1891,18 @@
       <c r="BC17" s="17"/>
     </row>
     <row r="18" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="21"/>
+      <c r="A18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="20"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E18" s="2" t="e">
+        <f>SUM(O18:BC18)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4">
@@ -1947,16 +1957,16 @@
       <c r="BC18" s="15"/>
     </row>
     <row r="19" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E19" s="1" t="e">
+        <f>SUM(O19:BC19)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="4">
@@ -2011,16 +2021,16 @@
       <c r="BC19" s="15"/>
     </row>
     <row r="20" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E20" s="3" t="e">
+        <f>SUM(O20:BC20)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
@@ -2073,18 +2083,18 @@
       <c r="BC20" s="15"/>
     </row>
     <row r="21" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="21"/>
+      <c r="A21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E21" s="1" t="e">
+        <f>SUM(O21:BC21)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5">
@@ -2139,16 +2149,16 @@
       <c r="BC21" s="16"/>
     </row>
     <row r="22" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E22" s="1" t="e">
+        <f>SUM(O22:BC22)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="4">
@@ -2203,16 +2213,16 @@
       <c r="BC22" s="15"/>
     </row>
     <row r="23" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E23" s="1" t="e">
+        <f>SUM(O23:BC23)/100*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
@@ -2265,18 +2275,18 @@
       <c r="BC23" s="17"/>
     </row>
     <row r="24" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="21"/>
+      <c r="A24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(O24:BC24)/100*O48</f>
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="4">
@@ -2331,16 +2341,16 @@
       <c r="BC24" s="15"/>
     </row>
     <row r="25" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O25:BC25)/100*O49</f>
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="4">
@@ -2395,16 +2405,16 @@
       <c r="BC25" s="15"/>
     </row>
     <row r="26" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(O26:BC26)/100*O50</f>
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
@@ -2457,18 +2467,18 @@
       <c r="BC26" s="15"/>
     </row>
     <row r="27" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O27:BC27)/100*O51</f>
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5">
@@ -2523,16 +2533,16 @@
       <c r="BC27" s="16"/>
     </row>
     <row r="28" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O28:BC28)/100*O52</f>
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="4">
@@ -2587,16 +2597,16 @@
       <c r="BC28" s="15"/>
     </row>
     <row r="29" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O29:BC29)/100*O53</f>
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="6"/>
@@ -2649,18 +2659,18 @@
       <c r="BC29" s="17"/>
     </row>
     <row r="30" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="21"/>
+      <c r="A30" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(O30:BC30)/100*O54</f>
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="4">
@@ -2715,16 +2725,16 @@
       <c r="BC30" s="15"/>
     </row>
     <row r="31" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O31:BC31)/100*O55</f>
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="4">
@@ -2779,16 +2789,16 @@
       <c r="BC31" s="15"/>
     </row>
     <row r="32" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(O32:BC32)/100*O56</f>
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
@@ -2841,18 +2851,18 @@
       <c r="BC32" s="17"/>
     </row>
     <row r="33" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
-        <v>43</v>
+      <c r="A33" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O33:BC33)/100*O57</f>
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="5">
@@ -2907,16 +2917,16 @@
       <c r="BC33" s="16"/>
     </row>
     <row r="34" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O34:BC34)/100*O58</f>
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="4">
@@ -2971,16 +2981,16 @@
       <c r="BC34" s="15"/>
     </row>
     <row r="35" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="3"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O35:BC35)/100*O59</f>
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="6"/>
@@ -3033,18 +3043,18 @@
       <c r="BC35" s="17"/>
     </row>
     <row r="36" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
-        <v>47</v>
+      <c r="A36" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(O36:BC36)/100*O60</f>
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="4">
@@ -3099,16 +3109,16 @@
       <c r="BC36" s="15"/>
     </row>
     <row r="37" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O37:BC37)/100*O61</f>
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="4">
@@ -3163,16 +3173,16 @@
       <c r="BC37" s="15"/>
     </row>
     <row r="38" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="3"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(O38:BC38)/100*O62</f>
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="6"/>
@@ -3234,78 +3244,461 @@
       </c>
     </row>
     <row r="40" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:56" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="18"/>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="18"/>
-      <c r="N41" s="7">
+      <c r="E41" s="18"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:56" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="18"/>
-      <c r="N42" s="7">
+      <c r="E42" s="18"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:56" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="18"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="7"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
+      <c r="BC42" s="7"/>
+      <c r="BD42" s="7"/>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="18"/>
-      <c r="N43" s="7">
+      <c r="E43" s="18"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:56" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="18"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="7"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="7"/>
+      <c r="BD43" s="7"/>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="18"/>
-      <c r="N44" s="7">
+      <c r="E44" s="18"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7">
         <v>387</v>
       </c>
-    </row>
-    <row r="45" spans="1:56" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="18"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7"/>
+      <c r="AZ44" s="7"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="7"/>
+      <c r="BC44" s="7"/>
+      <c r="BD44" s="7"/>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="18"/>
-      <c r="N45" s="7">
+      <c r="E45" s="18"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="7"/>
+      <c r="BD45" s="7"/>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7">
+        <v>8</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="N46" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="18"/>
-      <c r="N47" s="7">
+      <c r="E47" s="18"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7">
         <v>23</v>
       </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="BA4:BB4"/>
     <mergeCell ref="O3:BB3"/>
     <mergeCell ref="A3:A5"/>
@@ -3322,32 +3715,6 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
